--- a/BD/lista_munis.xlsx
+++ b/BD/lista_munis.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. Documentos\1. Estudios\7. Diplomado PUCP Data Science\04. Fundamentos de R\R-2023-Diplomado\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\R-2023-Diplomado\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3946D2E3-775A-43BD-B289-79EAF2F0AFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08F6FF1-537A-45B0-B87C-50DAD9675901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00975B0E-5278-49A0-8931-6DF1D1EEEDF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00975B0E-5278-49A0-8931-6DF1D1EEEDF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$44</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="179">
   <si>
     <t>ENTIDAD</t>
   </si>
@@ -306,19 +307,291 @@
   </si>
   <si>
     <t>Si</t>
+  </si>
+  <si>
+    <t>DISTRITO</t>
+  </si>
+  <si>
+    <t>PROVINCIA</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>ANCON</t>
+  </si>
+  <si>
+    <t>ATE</t>
+  </si>
+  <si>
+    <t>BARRANCO</t>
+  </si>
+  <si>
+    <t>BREÑA</t>
+  </si>
+  <si>
+    <t>CARABAYLLO</t>
+  </si>
+  <si>
+    <t>CHACLACAYO</t>
+  </si>
+  <si>
+    <t>CHORRILLOS</t>
+  </si>
+  <si>
+    <t>CIENEGUILLA</t>
+  </si>
+  <si>
+    <t>COMAS</t>
+  </si>
+  <si>
+    <t>EL AGUSTINO</t>
+  </si>
+  <si>
+    <t>INDEPENDENCIA</t>
+  </si>
+  <si>
+    <t>JESUS MARIA</t>
+  </si>
+  <si>
+    <t>LA MOLINA</t>
+  </si>
+  <si>
+    <t>LA VICTORIA</t>
+  </si>
+  <si>
+    <t>LINCE</t>
+  </si>
+  <si>
+    <t>LOS OLIVOS</t>
+  </si>
+  <si>
+    <t>LURIGANCHO</t>
+  </si>
+  <si>
+    <t>LURIN</t>
+  </si>
+  <si>
+    <t>MAGDALENA DEL MAR</t>
+  </si>
+  <si>
+    <t>MIRAFLORES</t>
+  </si>
+  <si>
+    <t>PACHACAMAC</t>
+  </si>
+  <si>
+    <t>PUCUSANA</t>
+  </si>
+  <si>
+    <t>PUEBLO LIBRE</t>
+  </si>
+  <si>
+    <t>PUENTE PIEDRA</t>
+  </si>
+  <si>
+    <t>PUNTA HERMOSA</t>
+  </si>
+  <si>
+    <t>PUNTA NEGRA</t>
+  </si>
+  <si>
+    <t>RIMAC</t>
+  </si>
+  <si>
+    <t>SAN BARTOLO</t>
+  </si>
+  <si>
+    <t>SAN BORJA</t>
+  </si>
+  <si>
+    <t>SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>SAN JUAN DE LURIGANCHO</t>
+  </si>
+  <si>
+    <t>SAN JUAN DE MIRAFLORES</t>
+  </si>
+  <si>
+    <t>SAN LUIS</t>
+  </si>
+  <si>
+    <t>SAN MARTIN DE PORRES</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL</t>
+  </si>
+  <si>
+    <t>SANTA ANITA</t>
+  </si>
+  <si>
+    <t>SANTA MARIA DEL MAR</t>
+  </si>
+  <si>
+    <t>SANTA ROSA</t>
+  </si>
+  <si>
+    <t>SANTIAGO DE SURCO</t>
+  </si>
+  <si>
+    <t>SURQUILLO</t>
+  </si>
+  <si>
+    <t>VILLA EL SALVADOR</t>
+  </si>
+  <si>
+    <t>VILLA MARIA DEL TRIUNFO</t>
+  </si>
+  <si>
+    <t>UBIGEO</t>
+  </si>
+  <si>
+    <t>150112</t>
+  </si>
+  <si>
+    <t>150115</t>
+  </si>
+  <si>
+    <t>150122</t>
+  </si>
+  <si>
+    <t>150110</t>
+  </si>
+  <si>
+    <t>150121</t>
+  </si>
+  <si>
+    <t>150131</t>
+  </si>
+  <si>
+    <t>150134</t>
+  </si>
+  <si>
+    <t>150136</t>
+  </si>
+  <si>
+    <t>150139</t>
+  </si>
+  <si>
+    <t>150102</t>
+  </si>
+  <si>
+    <t>150103</t>
+  </si>
+  <si>
+    <t>150104</t>
+  </si>
+  <si>
+    <t>150105</t>
+  </si>
+  <si>
+    <t>150106</t>
+  </si>
+  <si>
+    <t>150107</t>
+  </si>
+  <si>
+    <t>150108</t>
+  </si>
+  <si>
+    <t>150109</t>
+  </si>
+  <si>
+    <t>150111</t>
+  </si>
+  <si>
+    <t>150113</t>
+  </si>
+  <si>
+    <t>150114</t>
+  </si>
+  <si>
+    <t>150116</t>
+  </si>
+  <si>
+    <t>150117</t>
+  </si>
+  <si>
+    <t>150118</t>
+  </si>
+  <si>
+    <t>150119</t>
+  </si>
+  <si>
+    <t>150120</t>
+  </si>
+  <si>
+    <t>150123</t>
+  </si>
+  <si>
+    <t>150124</t>
+  </si>
+  <si>
+    <t>150125</t>
+  </si>
+  <si>
+    <t>150126</t>
+  </si>
+  <si>
+    <t>150127</t>
+  </si>
+  <si>
+    <t>150128</t>
+  </si>
+  <si>
+    <t>150129</t>
+  </si>
+  <si>
+    <t>150130</t>
+  </si>
+  <si>
+    <t>150132</t>
+  </si>
+  <si>
+    <t>150133</t>
+  </si>
+  <si>
+    <t>150135</t>
+  </si>
+  <si>
+    <t>150137</t>
+  </si>
+  <si>
+    <t>150138</t>
+  </si>
+  <si>
+    <t>150140</t>
+  </si>
+  <si>
+    <t>150141</t>
+  </si>
+  <si>
+    <t>150142</t>
+  </si>
+  <si>
+    <t>150143</t>
+  </si>
+  <si>
+    <t>150101</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -338,15 +611,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5E52F1B9-117A-4269-A0E2-5B6596D8D563}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -650,7 +925,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -658,19 +933,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E36A2F-3137-41C7-AAD1-6468B9314CF5}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C44"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="59.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,8 +956,17 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -691,8 +976,17 @@
       <c r="C2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -702,8 +996,17 @@
       <c r="C3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -713,8 +1016,17 @@
       <c r="C4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -724,8 +1036,17 @@
       <c r="C5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -735,8 +1056,17 @@
       <c r="C6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -746,8 +1076,17 @@
       <c r="C7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -757,8 +1096,17 @@
       <c r="C8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -768,8 +1116,17 @@
       <c r="C9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -779,8 +1136,17 @@
       <c r="C10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -790,8 +1156,17 @@
       <c r="C11" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -801,8 +1176,17 @@
       <c r="C12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -812,8 +1196,17 @@
       <c r="C13" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -823,8 +1216,17 @@
       <c r="C14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -834,8 +1236,17 @@
       <c r="C15" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -845,8 +1256,17 @@
       <c r="C16" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -856,8 +1276,17 @@
       <c r="C17" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -867,8 +1296,17 @@
       <c r="C18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -878,8 +1316,17 @@
       <c r="C19" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -889,8 +1336,17 @@
       <c r="C20" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -900,8 +1356,17 @@
       <c r="C21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -911,8 +1376,17 @@
       <c r="C22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -922,8 +1396,17 @@
       <c r="C23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -933,8 +1416,17 @@
       <c r="C24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -944,8 +1436,17 @@
       <c r="C25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -955,8 +1456,17 @@
       <c r="C26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -966,8 +1476,17 @@
       <c r="C27" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -977,8 +1496,17 @@
       <c r="C28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -988,8 +1516,17 @@
       <c r="C29" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -999,8 +1536,17 @@
       <c r="C30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1010,8 +1556,17 @@
       <c r="C31" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1021,8 +1576,17 @@
       <c r="C32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1032,8 +1596,17 @@
       <c r="C33" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1043,8 +1616,17 @@
       <c r="C34" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1054,8 +1636,17 @@
       <c r="C35" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1065,8 +1656,17 @@
       <c r="C36" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1076,8 +1676,17 @@
       <c r="C37" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1087,8 +1696,17 @@
       <c r="C38" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1098,8 +1716,17 @@
       <c r="C39" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1109,8 +1736,17 @@
       <c r="C40" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1120,8 +1756,17 @@
       <c r="C41" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -1131,8 +1776,17 @@
       <c r="C42" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -1142,8 +1796,17 @@
       <c r="C43" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>134</v>
+      </c>
+      <c r="F43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1153,8 +1816,18 @@
       <c r="C44" t="s">
         <v>89</v>
       </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F44" xr:uid="{C4E36A2F-3137-41C7-AAD1-6468B9314CF5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C44">
     <sortCondition ref="A1:A44"/>
   </sortState>
